--- a/src/test/java/TestData/TestData.xlsx
+++ b/src/test/java/TestData/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RavinderSingh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RavinderSingh\IdeaProjects\Assignment_7_11-10-2022\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BC5F75-4DDB-461D-8A99-FCCD556D2111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B05142B-B0CE-4C27-9053-F37437CB16EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{87154B29-F274-43F9-879B-2AAAA73C8242}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Shipping Details</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>Sector 71</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>9999999999</t>
   </si>
 </sst>
 </file>
@@ -100,12 +112,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -422,38 +437,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE005A0-2238-443E-AC9C-BEF61779DE9C}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
